--- a/testcases/case118.xlsx
+++ b/testcases/case118.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5680" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5682" uniqueCount="1247">
   <si>
     <t>name</t>
   </si>
@@ -3884,8 +3884,8 @@
   </sheetPr>
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17512,18 +17512,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17537,43 +17537,46 @@
         <v>302</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1057</v>
       </c>
@@ -17586,44 +17589,47 @@
       <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>310</v>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>443</v>
-      </c>
       <c r="H2" s="0" t="s">
         <v>443</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L2" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>1059</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>1060</v>
       </c>
@@ -17636,44 +17642,47 @@
       <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>310</v>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>1061</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>443</v>
-      </c>
       <c r="H3" s="0" t="s">
         <v>443</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L3" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>1063</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P3" s="0" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>1064</v>
       </c>
@@ -17686,44 +17695,47 @@
       <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>310</v>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>443</v>
-      </c>
       <c r="H4" s="0" t="s">
         <v>443</v>
       </c>
       <c r="I4" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L4" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>1063</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P4" s="0" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>1065</v>
       </c>
@@ -17736,44 +17748,47 @@
       <c r="D5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>310</v>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>1066</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>443</v>
-      </c>
       <c r="H5" s="0" t="s">
         <v>443</v>
       </c>
       <c r="I5" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L5" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>1067</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>1068</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="O5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P5" s="0" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>1070</v>
       </c>
@@ -17786,44 +17801,47 @@
       <c r="D6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>310</v>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>1071</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>443</v>
-      </c>
       <c r="H6" s="0" t="s">
         <v>443</v>
       </c>
       <c r="I6" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L6" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>1063</v>
       </c>
-      <c r="O6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P6" s="0" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>1072</v>
       </c>
@@ -17836,44 +17854,47 @@
       <c r="D7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>310</v>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>443</v>
-      </c>
       <c r="H7" s="0" t="s">
         <v>443</v>
       </c>
       <c r="I7" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L7" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="N7" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>1059</v>
       </c>
-      <c r="O7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P7" s="0" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>1073</v>
       </c>
@@ -17886,44 +17907,47 @@
       <c r="D8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>310</v>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>1074</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>443</v>
-      </c>
       <c r="H8" s="0" t="s">
         <v>443</v>
       </c>
       <c r="I8" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L8" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>1067</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="N8" s="0" t="s">
         <v>1068</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="O8" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P8" s="0" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>1075</v>
       </c>
@@ -17936,44 +17960,47 @@
       <c r="D9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>310</v>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>1074</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>443</v>
-      </c>
       <c r="H9" s="0" t="s">
         <v>443</v>
       </c>
       <c r="I9" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L9" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M9" s="0" t="s">
         <v>1067</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="N9" s="0" t="s">
         <v>1068</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="O9" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P9" s="0" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>1076</v>
       </c>
@@ -17986,40 +18013,43 @@
       <c r="D10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>310</v>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>1074</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>443</v>
-      </c>
       <c r="H10" s="0" t="s">
         <v>443</v>
       </c>
       <c r="I10" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L10" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M10" s="0" t="s">
         <v>1067</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="N10" s="0" t="s">
         <v>1068</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="O10" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="O10" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="0" t="s">
         <v>446</v>
       </c>
     </row>
@@ -18456,18 +18486,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>299</v>
       </c>
@@ -18478,64 +18508,67 @@
         <v>302</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -18545,8 +18578,8 @@
       <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>310</v>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>310</v>
@@ -18555,55 +18588,58 @@
         <v>310</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>1114</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q2" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S2" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T2" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U2" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V2" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W2" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>22</v>
       </c>
@@ -18613,8 +18649,8 @@
       <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>310</v>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>310</v>
@@ -18623,55 +18659,58 @@
         <v>310</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q3" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S3" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T3" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U3" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V3" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W3" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>28</v>
       </c>
@@ -18681,8 +18720,8 @@
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>310</v>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>310</v>
@@ -18691,55 +18730,58 @@
         <v>310</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>1121</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q4" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T4" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U4" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="V4" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V4" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W4" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>34</v>
       </c>
@@ -18749,8 +18791,8 @@
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>310</v>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>310</v>
@@ -18759,55 +18801,58 @@
         <v>310</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L5" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P5" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q5" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T5" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U5" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="V5" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V5" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W5" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>41</v>
       </c>
@@ -18817,65 +18862,68 @@
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>1124</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F6" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>1125</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>1126</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>1127</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L6" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q6" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S6" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T6" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U6" s="0" t="s">
         <v>1128</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V6" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W6" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>47</v>
       </c>
@@ -18885,65 +18933,68 @@
       <c r="C7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F7" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>1130</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>1131</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>1132</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L7" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q7" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S7" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T7" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U7" s="0" t="s">
         <v>1133</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="V7" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V7" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W7" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>53</v>
       </c>
@@ -18953,8 +19004,8 @@
       <c r="C8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>310</v>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>310</v>
@@ -18963,55 +19014,58 @@
         <v>310</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>1135</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L8" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P8" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q8" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S8" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T8" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U8" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="V8" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V8" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W8" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>61</v>
       </c>
@@ -19021,8 +19075,8 @@
       <c r="C9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>310</v>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>310</v>
@@ -19031,55 +19085,58 @@
         <v>310</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>1137</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L9" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P9" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q9" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S9" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T9" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U9" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="V9" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V9" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W9" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>64</v>
       </c>
@@ -19089,8 +19146,8 @@
       <c r="C10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>310</v>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>310</v>
@@ -19099,55 +19156,58 @@
         <v>310</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>1139</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L10" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P10" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q10" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S10" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T10" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U10" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="V10" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V10" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W10" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>76</v>
       </c>
@@ -19157,8 +19217,8 @@
       <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>310</v>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>310</v>
@@ -19167,55 +19227,58 @@
         <v>310</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L11" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P11" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q11" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S11" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T11" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U11" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="V11" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V11" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W11" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>79</v>
       </c>
@@ -19225,65 +19288,68 @@
       <c r="C12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>1142</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F12" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>1143</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>1144</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="J12" s="0" t="s">
         <v>1145</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="K12" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L12" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P12" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q12" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S12" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T12" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U12" s="0" t="s">
         <v>1146</v>
       </c>
-      <c r="U12" s="0" t="s">
+      <c r="V12" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V12" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W12" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>81</v>
       </c>
@@ -19293,65 +19359,68 @@
       <c r="C13" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>1148</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F13" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G13" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>1149</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>1150</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>1151</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="K13" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L13" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P13" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q13" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S13" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T13" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U13" s="0" t="s">
         <v>1152</v>
       </c>
-      <c r="U13" s="0" t="s">
+      <c r="V13" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V13" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W13" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>83</v>
       </c>
@@ -19361,8 +19430,8 @@
       <c r="C14" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>310</v>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>310</v>
@@ -19371,55 +19440,58 @@
         <v>310</v>
       </c>
       <c r="G14" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="I14" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="J14" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="K14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L14" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P14" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q14" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S14" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T14" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U14" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U14" s="0" t="s">
+      <c r="V14" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V14" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W14" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>92</v>
       </c>
@@ -19429,65 +19501,68 @@
       <c r="C15" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F15" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G15" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="J15" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="K15" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L15" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P15" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q15" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S15" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T15" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U15" s="0" t="s">
         <v>1155</v>
       </c>
-      <c r="U15" s="0" t="s">
+      <c r="V15" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V15" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W15" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>95</v>
       </c>
@@ -19497,8 +19572,8 @@
       <c r="C16" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>310</v>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>310</v>
@@ -19507,55 +19582,58 @@
         <v>310</v>
       </c>
       <c r="G16" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="I16" s="0" t="s">
         <v>1157</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="J16" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="K16" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L16" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P16" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q16" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S16" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T16" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U16" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U16" s="0" t="s">
+      <c r="V16" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V16" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W16" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>101</v>
       </c>
@@ -19565,8 +19643,8 @@
       <c r="C17" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>310</v>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>310</v>
@@ -19575,55 +19653,58 @@
         <v>310</v>
       </c>
       <c r="G17" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="I17" s="0" t="s">
         <v>1139</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="J17" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="K17" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L17" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P17" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q17" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T17" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U17" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U17" s="0" t="s">
+      <c r="V17" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V17" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W17" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>107</v>
       </c>
@@ -19633,8 +19714,8 @@
       <c r="C18" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>310</v>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>310</v>
@@ -19643,55 +19724,58 @@
         <v>310</v>
       </c>
       <c r="G18" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="I18" s="0" t="s">
         <v>1139</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="J18" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="K18" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L18" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P18" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q18" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S18" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T18" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U18" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U18" s="0" t="s">
+      <c r="V18" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V18" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W18" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>115</v>
       </c>
@@ -19701,8 +19785,8 @@
       <c r="C19" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>310</v>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>310</v>
@@ -19711,55 +19795,58 @@
         <v>310</v>
       </c>
       <c r="G19" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="I19" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="J19" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="K19" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L19" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P19" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q19" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S19" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T19" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U19" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U19" s="0" t="s">
+      <c r="V19" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V19" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W19" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>119</v>
       </c>
@@ -19769,8 +19856,8 @@
       <c r="C20" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>310</v>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>310</v>
@@ -19779,55 +19866,58 @@
         <v>310</v>
       </c>
       <c r="G20" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="I20" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="J20" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="K20" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L20" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P20" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q20" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S20" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T20" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U20" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U20" s="0" t="s">
+      <c r="V20" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V20" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W20" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>129</v>
       </c>
@@ -19837,65 +19927,68 @@
       <c r="C21" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F21" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G21" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>1163</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="I21" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="J21" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="K21" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="K21" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L21" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P21" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q21" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S21" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T21" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U21" s="0" t="s">
         <v>1165</v>
       </c>
-      <c r="U21" s="0" t="s">
+      <c r="V21" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V21" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W21" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>138</v>
       </c>
@@ -19905,65 +19998,68 @@
       <c r="C22" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>1167</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F22" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G22" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>1168</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>1169</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="J22" s="0" t="s">
         <v>1170</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="K22" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="K22" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L22" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P22" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q22" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S22" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T22" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U22" s="0" t="s">
         <v>1171</v>
       </c>
-      <c r="U22" s="0" t="s">
+      <c r="V22" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V22" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W22" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>152</v>
       </c>
@@ -19973,65 +20069,68 @@
       <c r="C23" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F23" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G23" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>1173</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="I23" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="J23" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="K23" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L23" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P23" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q23" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S23" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T23" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U23" s="0" t="s">
         <v>1174</v>
       </c>
-      <c r="U23" s="0" t="s">
+      <c r="V23" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V23" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W23" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>154</v>
       </c>
@@ -20041,8 +20140,8 @@
       <c r="C24" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>310</v>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>310</v>
@@ -20051,55 +20150,58 @@
         <v>310</v>
       </c>
       <c r="G24" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="I24" s="0" t="s">
         <v>1139</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="J24" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="K24" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="K24" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L24" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P24" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q24" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S24" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T24" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U24" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U24" s="0" t="s">
+      <c r="V24" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V24" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W24" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>157</v>
       </c>
@@ -20109,8 +20211,8 @@
       <c r="C25" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>310</v>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>310</v>
@@ -20119,55 +20221,58 @@
         <v>310</v>
       </c>
       <c r="G25" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="I25" s="0" t="s">
         <v>1139</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="J25" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="K25" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="K25" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L25" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P25" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q25" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S25" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T25" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U25" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U25" s="0" t="s">
+      <c r="V25" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V25" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W25" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>164</v>
       </c>
@@ -20177,65 +20282,68 @@
       <c r="C26" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>1178</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F26" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G26" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>1179</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="I26" s="0" t="s">
         <v>1180</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="J26" s="0" t="s">
         <v>1181</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="K26" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L26" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N26" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P26" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q26" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S26" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T26" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U26" s="0" t="s">
         <v>1182</v>
       </c>
-      <c r="U26" s="0" t="s">
+      <c r="V26" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V26" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W26" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>169</v>
       </c>
@@ -20245,65 +20353,68 @@
       <c r="C27" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>1184</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F27" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G27" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>1185</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="I27" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="J27" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="K27" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L27" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P27" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q27" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S27" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T27" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U27" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="U27" s="0" t="s">
+      <c r="V27" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V27" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W27" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>171</v>
       </c>
@@ -20313,8 +20424,8 @@
       <c r="C28" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>310</v>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>310</v>
@@ -20323,55 +20434,58 @@
         <v>310</v>
       </c>
       <c r="G28" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="I28" s="0" t="s">
         <v>1187</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="J28" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="K28" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L28" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P28" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q28" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S28" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T28" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U28" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U28" s="0" t="s">
+      <c r="V28" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V28" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W28" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>178</v>
       </c>
@@ -20381,65 +20495,68 @@
       <c r="C29" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>1189</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F29" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G29" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H29" s="0" t="s">
         <v>1190</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="I29" s="0" t="s">
         <v>1191</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="J29" s="0" t="s">
         <v>1127</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="K29" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="K29" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L29" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P29" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q29" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S29" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T29" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U29" s="0" t="s">
         <v>1192</v>
       </c>
-      <c r="U29" s="0" t="s">
+      <c r="V29" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V29" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W29" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>180</v>
       </c>
@@ -20449,65 +20566,68 @@
       <c r="C30" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>1194</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F30" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G30" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>1195</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="I30" s="0" t="s">
         <v>1191</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="J30" s="0" t="s">
         <v>1127</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="K30" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L30" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P30" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q30" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S30" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T30" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U30" s="0" t="s">
         <v>1196</v>
       </c>
-      <c r="U30" s="0" t="s">
+      <c r="V30" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V30" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W30" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>188</v>
       </c>
@@ -20517,65 +20637,68 @@
       <c r="C31" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>1198</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F31" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G31" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H31" s="0" t="s">
         <v>1199</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="I31" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="J31" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="K31" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="K31" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L31" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P31" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q31" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S31" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T31" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U31" s="0" t="s">
         <v>1200</v>
       </c>
-      <c r="U31" s="0" t="s">
+      <c r="V31" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V31" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W31" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>190</v>
       </c>
@@ -20585,8 +20708,8 @@
       <c r="C32" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>310</v>
+      <c r="D32" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>310</v>
@@ -20595,55 +20718,58 @@
         <v>310</v>
       </c>
       <c r="G32" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H32" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="I32" s="0" t="s">
         <v>1135</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="J32" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="K32" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L32" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P32" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q32" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S32" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T32" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U32" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U32" s="0" t="s">
+      <c r="V32" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V32" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W32" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>194</v>
       </c>
@@ -20653,8 +20779,8 @@
       <c r="C33" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>310</v>
+      <c r="D33" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>310</v>
@@ -20663,55 +20789,58 @@
         <v>310</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="I33" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="J33" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="K33" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K33" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L33" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N33" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P33" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q33" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S33" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T33" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U33" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U33" s="0" t="s">
+      <c r="V33" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V33" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W33" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>196</v>
       </c>
@@ -20721,8 +20850,8 @@
       <c r="C34" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>310</v>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>310</v>
@@ -20731,55 +20860,58 @@
         <v>310</v>
       </c>
       <c r="G34" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H34" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="I34" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="J34" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="K34" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L34" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P34" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q34" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S34" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T34" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U34" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U34" s="0" t="s">
+      <c r="V34" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V34" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W34" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>199</v>
       </c>
@@ -20789,8 +20921,8 @@
       <c r="C35" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>310</v>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>310</v>
@@ -20799,55 +20931,58 @@
         <v>310</v>
       </c>
       <c r="G35" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="I35" s="0" t="s">
         <v>1205</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="J35" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="K35" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="K35" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L35" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P35" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q35" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S35" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T35" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U35" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U35" s="0" t="s">
+      <c r="V35" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V35" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W35" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>203</v>
       </c>
@@ -20857,8 +20992,8 @@
       <c r="C36" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>310</v>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>310</v>
@@ -20867,55 +21002,58 @@
         <v>310</v>
       </c>
       <c r="G36" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H36" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="I36" s="0" t="s">
         <v>1139</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="J36" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="K36" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="K36" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L36" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P36" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q36" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S36" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T36" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U36" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U36" s="0" t="s">
+      <c r="V36" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V36" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W36" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>206</v>
       </c>
@@ -20925,8 +21063,8 @@
       <c r="C37" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>310</v>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>310</v>
@@ -20935,55 +21073,58 @@
         <v>310</v>
       </c>
       <c r="G37" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H37" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="I37" s="0" t="s">
         <v>1187</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="J37" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="K37" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="K37" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L37" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N37" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P37" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P37" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q37" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S37" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T37" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U37" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U37" s="0" t="s">
+      <c r="V37" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V37" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W37" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>213</v>
       </c>
@@ -20993,65 +21134,68 @@
       <c r="C38" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>1209</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F38" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G38" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H38" s="0" t="s">
         <v>1210</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="I38" s="0" t="s">
         <v>1211</v>
       </c>
-      <c r="I38" s="0" t="s">
+      <c r="J38" s="0" t="s">
         <v>1212</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="K38" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="K38" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L38" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N38" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P38" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q38" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S38" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T38" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U38" s="0" t="s">
         <v>1213</v>
       </c>
-      <c r="U38" s="0" t="s">
+      <c r="V38" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V38" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W38" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>225</v>
       </c>
@@ -21061,8 +21205,8 @@
       <c r="C39" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>310</v>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>310</v>
@@ -21071,55 +21215,58 @@
         <v>310</v>
       </c>
       <c r="G39" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H39" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="I39" s="0" t="s">
         <v>1139</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="J39" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="K39" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L39" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P39" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q39" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S39" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T39" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U39" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U39" s="0" t="s">
+      <c r="V39" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V39" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W39" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>229</v>
       </c>
@@ -21129,65 +21276,68 @@
       <c r="C40" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F40" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G40" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H40" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="I40" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="I40" s="0" t="s">
+      <c r="J40" s="0" t="s">
         <v>1151</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="K40" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K40" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L40" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N40" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O40" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P40" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q40" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R40" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S40" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T40" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U40" s="0" t="s">
         <v>1216</v>
       </c>
-      <c r="U40" s="0" t="s">
+      <c r="V40" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V40" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W40" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>234</v>
       </c>
@@ -21197,65 +21347,68 @@
       <c r="C41" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>1218</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F41" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G41" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H41" s="0" t="s">
         <v>1219</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="I41" s="0" t="s">
         <v>1220</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="J41" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="J41" s="0" t="s">
+      <c r="K41" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="K41" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L41" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N41" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P41" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q41" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S41" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T41" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U41" s="0" t="s">
         <v>1221</v>
       </c>
-      <c r="U41" s="0" t="s">
+      <c r="V41" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V41" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W41" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>236</v>
       </c>
@@ -21265,8 +21418,8 @@
       <c r="C42" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>310</v>
+      <c r="D42" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>310</v>
@@ -21275,55 +21428,58 @@
         <v>310</v>
       </c>
       <c r="G42" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H42" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="I42" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="J42" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="K42" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K42" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L42" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O42" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P42" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q42" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R42" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S42" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T42" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U42" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U42" s="0" t="s">
+      <c r="V42" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V42" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W42" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>238</v>
       </c>
@@ -21333,8 +21489,8 @@
       <c r="C43" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>310</v>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>310</v>
@@ -21343,55 +21499,58 @@
         <v>310</v>
       </c>
       <c r="G43" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H43" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="I43" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="J43" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="J43" s="0" t="s">
+      <c r="K43" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K43" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L43" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N43" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O43" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P43" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q43" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S43" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T43" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U43" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U43" s="0" t="s">
+      <c r="V43" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V43" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W43" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>240</v>
       </c>
@@ -21401,8 +21560,8 @@
       <c r="C44" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>310</v>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>310</v>
@@ -21411,55 +21570,58 @@
         <v>310</v>
       </c>
       <c r="G44" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H44" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="I44" s="0" t="s">
         <v>1225</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="J44" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="K44" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K44" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L44" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N44" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O44" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P44" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P44" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q44" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S44" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T44" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U44" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U44" s="0" t="s">
+      <c r="V44" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V44" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W44" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>256</v>
       </c>
@@ -21469,8 +21631,8 @@
       <c r="C45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>310</v>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>310</v>
@@ -21479,55 +21641,58 @@
         <v>310</v>
       </c>
       <c r="G45" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H45" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="I45" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="J45" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="J45" s="0" t="s">
+      <c r="K45" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="K45" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L45" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N45" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O45" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P45" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P45" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q45" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S45" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T45" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U45" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U45" s="0" t="s">
+      <c r="V45" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V45" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W45" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>259</v>
       </c>
@@ -21537,65 +21702,68 @@
       <c r="C46" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>1228</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F46" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G46" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H46" s="0" t="s">
         <v>1229</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="I46" s="0" t="s">
         <v>1230</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="J46" s="0" t="s">
         <v>1178</v>
       </c>
-      <c r="J46" s="0" t="s">
+      <c r="K46" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="K46" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L46" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N46" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O46" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P46" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q46" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R46" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S46" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T46" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U46" s="0" t="s">
         <v>1231</v>
       </c>
-      <c r="U46" s="0" t="s">
+      <c r="V46" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V46" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W46" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>265</v>
       </c>
@@ -21605,65 +21773,68 @@
       <c r="C47" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F47" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G47" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H47" s="0" t="s">
         <v>1145</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="I47" s="0" t="s">
         <v>1233</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="J47" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="J47" s="0" t="s">
+      <c r="K47" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="K47" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L47" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N47" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O47" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P47" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q47" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S47" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T47" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U47" s="0" t="s">
         <v>1234</v>
       </c>
-      <c r="U47" s="0" t="s">
+      <c r="V47" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V47" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W47" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>267</v>
       </c>
@@ -21673,8 +21844,8 @@
       <c r="C48" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>310</v>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>310</v>
@@ -21683,55 +21854,58 @@
         <v>310</v>
       </c>
       <c r="G48" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H48" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="I48" s="0" t="s">
         <v>1139</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="J48" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="J48" s="0" t="s">
+      <c r="K48" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K48" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L48" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N48" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O48" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P48" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P48" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q48" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S48" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T48" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U48" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U48" s="0" t="s">
+      <c r="V48" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V48" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W48" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>269</v>
       </c>
@@ -21741,8 +21915,8 @@
       <c r="C49" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>310</v>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>310</v>
@@ -21751,55 +21925,58 @@
         <v>310</v>
       </c>
       <c r="G49" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H49" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="I49" s="0" t="s">
         <v>1139</v>
       </c>
-      <c r="I49" s="0" t="s">
+      <c r="J49" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="J49" s="0" t="s">
+      <c r="K49" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="K49" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L49" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N49" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O49" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P49" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P49" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q49" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S49" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T49" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U49" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U49" s="0" t="s">
+      <c r="V49" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V49" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W49" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>274</v>
       </c>
@@ -21809,8 +21986,8 @@
       <c r="C50" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>310</v>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>310</v>
@@ -21819,55 +21996,58 @@
         <v>310</v>
       </c>
       <c r="G50" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H50" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="I50" s="0" t="s">
         <v>1238</v>
       </c>
-      <c r="I50" s="0" t="s">
+      <c r="J50" s="0" t="s">
         <v>1127</v>
       </c>
-      <c r="J50" s="0" t="s">
+      <c r="K50" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="K50" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L50" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N50" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O50" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P50" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q50" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S50" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T50" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U50" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U50" s="0" t="s">
+      <c r="V50" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V50" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W50" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>280</v>
       </c>
@@ -21877,8 +22057,8 @@
       <c r="C51" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>310</v>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>310</v>
@@ -21887,55 +22067,58 @@
         <v>310</v>
       </c>
       <c r="G51" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H51" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="I51" s="0" t="s">
         <v>1139</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="J51" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="J51" s="0" t="s">
+      <c r="K51" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="K51" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L51" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N51" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O51" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P51" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q51" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S51" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T51" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U51" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U51" s="0" t="s">
+      <c r="V51" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V51" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W51" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>282</v>
       </c>
@@ -21945,65 +22128,68 @@
       <c r="C52" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="F52" s="0" t="s">
         <v>310</v>
       </c>
       <c r="G52" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H52" s="0" t="s">
         <v>1241</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="I52" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="J52" s="0" t="s">
         <v>1151</v>
       </c>
-      <c r="J52" s="0" t="s">
+      <c r="K52" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K52" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L52" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N52" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O52" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P52" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q52" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S52" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T52" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U52" s="0" t="s">
         <v>1242</v>
       </c>
-      <c r="U52" s="0" t="s">
+      <c r="V52" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V52" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W52" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>284</v>
       </c>
@@ -22013,8 +22199,8 @@
       <c r="C53" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>310</v>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>310</v>
@@ -22023,55 +22209,58 @@
         <v>310</v>
       </c>
       <c r="G53" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H53" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="I53" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="J53" s="0" t="s">
         <v>1151</v>
       </c>
-      <c r="J53" s="0" t="s">
+      <c r="K53" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K53" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L53" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N53" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O53" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P53" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q53" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S53" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T53" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U53" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U53" s="0" t="s">
+      <c r="V53" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V53" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W53" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>287</v>
       </c>
@@ -22081,8 +22270,8 @@
       <c r="C54" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>310</v>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>310</v>
@@ -22091,55 +22280,58 @@
         <v>310</v>
       </c>
       <c r="G54" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H54" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="I54" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="I54" s="0" t="s">
+      <c r="J54" s="0" t="s">
         <v>1127</v>
       </c>
-      <c r="J54" s="0" t="s">
+      <c r="K54" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="K54" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L54" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N54" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O54" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P54" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q54" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R54" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S54" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T54" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U54" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U54" s="0" t="s">
+      <c r="V54" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V54" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W54" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>292</v>
       </c>
@@ -22149,8 +22341,8 @@
       <c r="C55" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>310</v>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>310</v>
@@ -22159,51 +22351,54 @@
         <v>310</v>
       </c>
       <c r="G55" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="H55" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="I55" s="0" t="s">
         <v>1150</v>
       </c>
-      <c r="I55" s="0" t="s">
+      <c r="J55" s="0" t="s">
         <v>1151</v>
       </c>
-      <c r="J55" s="0" t="s">
+      <c r="K55" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="K55" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L55" s="0" t="s">
         <v>310</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="N55" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P55" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="P55" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="Q55" s="0" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="R55" s="0" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="S55" s="0" t="s">
         <v>310</v>
       </c>
       <c r="T55" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="U55" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="U55" s="0" t="s">
+      <c r="V55" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V55" s="0" t="s">
+      <c r="W55" s="0" t="s">
         <v>310</v>
       </c>
     </row>

--- a/testcases/case118.xlsx
+++ b/testcases/case118.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5682" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5683" uniqueCount="1247">
   <si>
     <t>name</t>
   </si>
@@ -3885,7 +3885,7 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
+      <selection pane="topLeft" activeCell="A70" activeCellId="1" sqref="H2:H10 A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7720,7 +7720,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H10 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7746,7 +7746,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H10 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7783,7 +7783,7 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H10 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10190,7 +10190,7 @@
   <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H10 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17512,10 +17512,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17546,33 +17546,36 @@
         <v>431</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>438</v>
       </c>
     </row>
@@ -17598,34 +17601,37 @@
       <c r="G2" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>443</v>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>443</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="M2" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>1059</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>446</v>
       </c>
     </row>
@@ -17651,34 +17657,37 @@
       <c r="G3" s="0" t="s">
         <v>1061</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>443</v>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>443</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="M3" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>1063</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>446</v>
       </c>
     </row>
@@ -17704,34 +17713,37 @@
       <c r="G4" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>443</v>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>443</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="M4" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>1063</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>446</v>
       </c>
     </row>
@@ -17757,34 +17769,37 @@
       <c r="G5" s="0" t="s">
         <v>1066</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>443</v>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>443</v>
       </c>
       <c r="J5" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="M5" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>1067</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>1068</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>446</v>
       </c>
     </row>
@@ -17810,34 +17825,37 @@
       <c r="G6" s="0" t="s">
         <v>1071</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>443</v>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>443</v>
       </c>
       <c r="J6" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="L6" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="M6" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>1063</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>446</v>
       </c>
     </row>
@@ -17863,34 +17881,37 @@
       <c r="G7" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>443</v>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>443</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="M7" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="P7" s="0" t="s">
         <v>1059</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>446</v>
       </c>
     </row>
@@ -17916,34 +17937,37 @@
       <c r="G8" s="0" t="s">
         <v>1074</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>443</v>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>443</v>
       </c>
       <c r="J8" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="L8" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="M8" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="N8" s="0" t="s">
         <v>1067</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>1068</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="P8" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>446</v>
       </c>
     </row>
@@ -17969,34 +17993,37 @@
       <c r="G9" s="0" t="s">
         <v>1074</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>443</v>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>443</v>
       </c>
       <c r="J9" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="M9" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="N9" s="0" t="s">
         <v>1067</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>1068</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="P9" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="P9" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>446</v>
       </c>
     </row>
@@ -18022,34 +18049,37 @@
       <c r="G10" s="0" t="s">
         <v>1074</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>443</v>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>443</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="L10" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="L10" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="M10" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="N10" s="0" t="s">
         <v>1067</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="O10" s="0" t="s">
         <v>1068</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="P10" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="P10" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="0" t="s">
         <v>446</v>
       </c>
     </row>
@@ -18072,7 +18102,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H10 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18137,7 +18167,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H10 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18419,7 +18449,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H10 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18454,7 +18484,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H10 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18488,8 +18518,8 @@
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="1" sqref="H2:H10 D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
